--- a/Documentacion/Gantt por fecha.xlsx
+++ b/Documentacion/Gantt por fecha.xlsx
@@ -1,14 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practicas\SisAsis\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D17DD03-3095-4CB9-9D0A-18984028480B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
   </bookViews>
@@ -17,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -102,9 +96,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -257,7 +251,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -270,16 +264,16 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -288,6 +282,97 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="d\-mmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -329,97 +414,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="[$-C0A]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="[$-C0A]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -434,9 +428,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -578,7 +572,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE64-42E0-8B2F-D97D5901093D}"/>
             </c:ext>
@@ -623,7 +617,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -692,51 +686,51 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-25</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-46</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>-52</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-53</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-58</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-62</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BE64-42E0-8B2F-D97D5901093D}"/>
             </c:ext>
@@ -781,7 +775,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -850,51 +844,51 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>51</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BE64-42E0-8B2F-D97D5901093D}"/>
             </c:ext>
@@ -910,11 +904,11 @@
         </c:dLbls>
         <c:gapWidth val="53"/>
         <c:overlap val="100"/>
-        <c:axId val="496392120"/>
-        <c:axId val="1"/>
+        <c:axId val="198473216"/>
+        <c:axId val="198474752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="496392120"/>
+        <c:axId val="198473216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +949,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="198474752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="198474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40909"/>
@@ -1005,7 +999,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496392120"/>
+        <c:crossAx val="198473216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1077,7 +1071,7 @@
         <xdr:cNvPr id="1026" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661C28E0-B630-49F9-AF84-03847D354937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{661C28E0-B630-49F9-AF84-03847D354937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1109,7 @@
         <xdr:cNvPr id="1027" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872F4E51-2125-4DBD-AB3A-1A0AF39A5323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{872F4E51-2125-4DBD-AB3A-1A0AF39A5323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,19 +1169,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:G20" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:G20" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
   <autoFilter ref="B5:G20"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Proyecto" dataDxfId="7"/>
-    <tableColumn id="2" name="Fecha inicio prevista" dataDxfId="6"/>
-    <tableColumn id="3" name="Dias trabajados" dataDxfId="5">
+    <tableColumn id="1" name="Proyecto" dataDxfId="5"/>
+    <tableColumn id="2" name="Fecha inicio prevista" dataDxfId="4"/>
+    <tableColumn id="3" name="Dias trabajados" dataDxfId="3">
       <calculatedColumnFormula>IF(E6&lt;TODAY(),E6-C6,TODAY()-C6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Fecha final prevista" dataDxfId="4"/>
-    <tableColumn id="5" name="Situación" dataDxfId="3">
+    <tableColumn id="4" name="Fecha final prevista" dataDxfId="2"/>
+    <tableColumn id="5" name="Situación" dataDxfId="1">
       <calculatedColumnFormula>IF(E6&lt;TODAY(),"Terminado","En curso")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Dias para el final" dataDxfId="2">
+    <tableColumn id="6" name="Dias para el final" dataDxfId="0">
       <calculatedColumnFormula>Hoja1!$E6-Hoja1!$D6-Hoja1!$C6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1238,7 +1232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1271,26 +1265,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1323,23 +1300,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1536,16 +1496,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="15"/>
       <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1550,7 @@
       </c>
       <c r="F6" s="9" t="str">
         <f t="shared" ref="F6:F17" ca="1" si="1">IF(E6&lt;TODAY(),"Terminado","En curso")</f>
-        <v>En curso</v>
+        <v>Terminado</v>
       </c>
       <c r="G6" s="9">
         <f ca="1">Hoja1!$E6-Hoja1!$D6-Hoja1!$C6</f>
@@ -1606,18 +1566,18 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>43460</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>En curso</v>
+        <v>Terminado</v>
       </c>
       <c r="G7" s="9">
         <f ca="1">Hoja1!$E7-Hoja1!$D7-Hoja1!$C7</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1629,18 +1589,18 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <v>43461</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>En curso</v>
+        <v>Terminado</v>
       </c>
       <c r="G8" s="9">
         <f ca="1">Hoja1!$E8-Hoja1!$D8-Hoja1!$C8</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1652,18 +1612,18 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7">
         <v>43469</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>En curso</v>
+        <v>Terminado</v>
       </c>
       <c r="G9" s="9">
         <f ca="1">Hoja1!$E9-Hoja1!$D9-Hoja1!$C9</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1675,18 +1635,18 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
         <v>43474</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>En curso</v>
+        <v>Terminado</v>
       </c>
       <c r="G10" s="9">
         <f ca="1">Hoja1!$E10-Hoja1!$D10-Hoja1!$C10</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1698,7 +1658,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
         <v>43479</v>
@@ -1709,7 +1669,7 @@
       </c>
       <c r="G11" s="9">
         <f ca="1">Hoja1!$E11-Hoja1!$D11-Hoja1!$C11</f>
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1721,7 +1681,7 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-25</v>
+        <v>-4</v>
       </c>
       <c r="E12" s="7">
         <v>43482</v>
@@ -1732,7 +1692,7 @@
       </c>
       <c r="G12" s="9">
         <f ca="1">Hoja1!$E12-Hoja1!$D12-Hoja1!$C12</f>
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1744,7 +1704,7 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="E13" s="7">
         <v>43488</v>
@@ -1755,7 +1715,7 @@
       </c>
       <c r="G13" s="9">
         <f ca="1">Hoja1!$E13-Hoja1!$D13-Hoja1!$C13</f>
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1727,7 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-34</v>
+        <v>-13</v>
       </c>
       <c r="E14" s="7">
         <v>43494</v>
@@ -1778,7 +1738,7 @@
       </c>
       <c r="G14" s="9">
         <f ca="1">Hoja1!$E14-Hoja1!$D14-Hoja1!$C14</f>
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1788,20 +1748,20 @@
       <c r="C15" s="7">
         <v>43495</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f ca="1">IF(E15&lt;TODAY(),E15-C15,TODAY()-C15)</f>
-        <v>-40</v>
+        <v>-19</v>
       </c>
       <c r="E15" s="7">
         <v>43500</v>
       </c>
-      <c r="F15" s="15" t="str">
+      <c r="F15" s="13" t="str">
         <f ca="1">IF(E15&lt;TODAY(),"Terminado","En curso")</f>
         <v>En curso</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <f ca="1">Hoja1!$E15-Hoja1!$D15-Hoja1!$C15</f>
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1811,20 +1771,20 @@
       <c r="C16" s="7">
         <v>43501</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <f ca="1">IF(E16&lt;TODAY(),E16-C16,TODAY()-C16)</f>
-        <v>-46</v>
+        <v>-25</v>
       </c>
       <c r="E16" s="7">
         <v>43506</v>
       </c>
-      <c r="F16" s="15" t="str">
+      <c r="F16" s="13" t="str">
         <f ca="1">IF(E16&lt;TODAY(),"Terminado","En curso")</f>
         <v>En curso</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <f ca="1">Hoja1!$E16-Hoja1!$D16-Hoja1!$C16</f>
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1836,7 +1796,7 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-52</v>
+        <v>-31</v>
       </c>
       <c r="E17" s="7">
         <v>43507</v>
@@ -1847,7 +1807,7 @@
       </c>
       <c r="G17" s="9">
         <f ca="1">Hoja1!$E17-Hoja1!$D17-Hoja1!$C17</f>
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1859,7 +1819,7 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" ref="D18" ca="1" si="2">IF(E18&lt;TODAY(),E18-C18,TODAY()-C18)</f>
-        <v>-53</v>
+        <v>-32</v>
       </c>
       <c r="E18" s="7">
         <v>43512</v>
@@ -1870,7 +1830,7 @@
       </c>
       <c r="G18" s="9">
         <f ca="1">Hoja1!$E18-Hoja1!$D18-Hoja1!$C18</f>
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1882,7 +1842,7 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" ref="D19" ca="1" si="4">IF(E19&lt;TODAY(),E19-C19,TODAY()-C19)</f>
-        <v>-58</v>
+        <v>-37</v>
       </c>
       <c r="E19" s="7">
         <v>43516</v>
@@ -1893,7 +1853,7 @@
       </c>
       <c r="G19" s="9">
         <f ca="1">Hoja1!$E19-Hoja1!$D19-Hoja1!$C19</f>
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1905,7 +1865,7 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" ref="D20" ca="1" si="6">IF(E20&lt;TODAY(),E20-C20,TODAY()-C20)</f>
-        <v>-62</v>
+        <v>-41</v>
       </c>
       <c r="E20" s="7">
         <v>43519</v>
@@ -1916,7 +1876,7 @@
       </c>
       <c r="G20" s="9">
         <f ca="1">Hoja1!$E20-Hoja1!$D20-Hoja1!$C20</f>
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
